--- a/xlsx/回收_intext.xlsx
+++ b/xlsx/回收_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="758">
   <si>
     <t>回收</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%9B%9E%E6%94%B6_(%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>垃圾回收 (計算機科學)</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_回收</t>
+    <t>垃圾回收 (计算机科学)</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E7%92%B0%E5%86%8D%E9%80%A0%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>循環再造標誌</t>
+    <t>循环再造标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D3R</t>
   </si>
   <si>
-    <t>環保3R</t>
+    <t>环保3R</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%AE%A4%E6%B0%94%E4%BD%93</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E8%A4%87%E4%BD%BF%E7%94%A8</t>
   </si>
   <si>
-    <t>重複使用</t>
+    <t>重复使用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E5%8C%96%E7%BB%84%E7%BB%87</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9A%E9%A4%98</t>
   </si>
   <si>
-    <t>廚餘</t>
+    <t>厨馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E8%8B%AF%E4%B9%99%E7%83%AF</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>垃圾分類</t>
+    <t>垃圾分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B6%E7%94%B5%E8%B7%AF%E6%9D%BF</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6%E8%A8%88</t>
   </si>
   <si>
-    <t>溫度計</t>
+    <t>温度计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A8%E8%B0%83%E6%B8%A9%E5%99%A8</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%94%B6%E9%9B%86%E5%93%A1</t>
   </si>
   <si>
-    <t>垃圾收集員</t>
+    <t>垃圾收集员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%BA%A6%E5%85%8B%E9%83%A1</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E5%92%8C%E9%9C%80%E6%B1%82</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E8%BB%8A</t>
   </si>
   <si>
-    <t>垃圾車</t>
+    <t>垃圾车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E5%9F%B9%E6%8B%89</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A1%9E%E5%9B%9E%E6%94%B6%E6%A1%B6</t>
   </si>
   <si>
-    <t>分類回收桶</t>
+    <t>分类回收桶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%80%9A%E7%B4%99</t>
   </si>
   <si>
-    <t>瓦通紙</t>
+    <t>瓦通纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E6%96%99%E8%A2%8B</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%90%E9%A0%AD</t>
   </si>
   <si>
-    <t>罐頭</t>
+    <t>罐头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%89%B2%E9%87%91%E5%B1%9E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E9%9B%BB%E6%B5%81</t>
   </si>
   <si>
-    <t>渦電流</t>
+    <t>涡电流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%9C%BA</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%89%E5%BA%AB</t>
   </si>
   <si>
-    <t>倉庫</t>
+    <t>仓库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%B5%86</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E9%88%BE</t>
   </si>
   <si>
-    <t>貧鈾</t>
+    <t>贫铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E4%BC%8F%E9%99%A3%E5%88%97</t>
   </si>
   <si>
-    <t>光伏陣列</t>
+    <t>光伏阵列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E6%B0%AF%E4%B9%99%E7%83%AF</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%9B%BB%E8%85%A6%E5%9B%9E%E6%94%B6%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>廢電腦回收技術</t>
+    <t>废电脑回收技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%9E%83%E5%9C%BE</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>巴塞爾公約</t>
+    <t>巴塞尔公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%9B%BB%E5%AD%90%E9%9B%BB%E6%A9%9F%E8%A8%AD%E5%82%99%E6%8C%87%E4%BB%A4</t>
   </si>
   <si>
-    <t>廢電子電機設備指令</t>
+    <t>废电子电机设备指令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%9B%BA%E6%80%A7%E8%81%9A%E5%90%88%E7%89%A9</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%80%9A%E7%94%A8%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6%E7%B7%A8%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際通用資源回收編碼</t>
+    <t>国际通用资源回收编码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E8%86%A0%E5%88%86%E9%A1%9E%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>塑膠分類標誌</t>
+    <t>塑胶分类标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%99%BE%E6%83%A0</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%BA%E8%AA%8D%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>確認偏誤</t>
+    <t>确认偏误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E6%8A%80%E6%9C%AF%E5%A4%A7%E5%AD%A6</t>
@@ -497,73 +497,73 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E7%89%A9%E5%BE%B5%E8%B2%BB</t>
   </si>
   <si>
-    <t>廢物徵費</t>
+    <t>废物征费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>行政院環境保護署</t>
+    <t>行政院环境保护署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%93%E6%BF%9F%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國經濟部</t>
+    <t>中华民国经济部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>環境保護署 (香港)</t>
+    <t>环境保护署 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>環境保護署</t>
+    <t>环境保护署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E7%BD%B2</t>
   </si>
   <si>
-    <t>環保署</t>
+    <t>环保署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99</t>
   </si>
   <si>
-    <t>紙</t>
+    <t>纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%81%E7%BD%90</t>
   </si>
   <si>
-    <t>鋁罐</t>
+    <t>铝罐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E6%A8%BD</t>
   </si>
   <si>
-    <t>膠樽</t>
+    <t>胶樽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E5%B1%80_(%E6%BE%B3%E9%96%80)</t>
   </si>
   <si>
-    <t>環境保護局 (澳門)</t>
+    <t>环境保护局 (澳门)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%BA%A5%E5%94%90%E7%B4%8D</t>
   </si>
   <si>
-    <t>威廉·麥唐納</t>
+    <t>威廉·麦唐纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E9%99%8D%E8%A7%A3</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
   </si>
   <si>
-    <t>可持續性</t>
+    <t>可持续性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E9%80%B1%E6%9C%9F%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>生命週期評估</t>
+    <t>生命周期评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%9D%E5%9C%9F%E7%9F%BF</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/Jevons%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>Jevons悖論</t>
+    <t>Jevons悖论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E7%A8%8E</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E4%BE%B5%E8%9D%95</t>
   </si>
   <si>
-    <t>土壤侵蝕</t>
+    <t>土壤侵蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E6%96%99</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%B5%A6%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>自給農業</t>
+    <t>自给农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%80%95%E7%BB%86%E4%BD%9C</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E6%A5%AD%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>事業廢棄物</t>
+    <t>事业废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Popular_Science</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%A9%E4%BB%B6%E8%AD%98%E5%88%A5%E8%99%9F</t>
   </si>
   <si>
-    <t>數位物件識別號</t>
+    <t>数位物件识别号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%B1%80</t>
   </si>
   <si>
-    <t>工業局</t>
+    <t>工业局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%9B%9E%E6%94%B6%E5%9E%83%E5%9C%BE</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%89%B9%E7%93%B6%E5%9B%9E%E6%94%B6%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>寶特瓶回收技術</t>
+    <t>宝特瓶回收技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%85%B3</t>
   </si>
   <si>
-    <t>下腳</t>
+    <t>下脚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E7%89%A9%E5%86%8D%E5%88%A9%E7%94%A8</t>
   </si>
   <si>
-    <t>廢物再利用</t>
+    <t>废物再利用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BE%E8%8D%92</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E9%9B%A8</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%BB%AF%E5%8C%96</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9A%B1%E8%9C%A2%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>蚱蜢效應</t>
+    <t>蚱蜢效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96</t>
@@ -827,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E7%B2%92%E5%AD%90</t>
   </si>
   <si>
-    <t>懸浮粒子</t>
+    <t>悬浮粒子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E9%9C%A7</t>
   </si>
   <si>
-    <t>煙霧</t>
+    <t>烟雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E9%9C%9E</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%86%A0</t>
   </si>
   <si>
-    <t>氣膠</t>
+    <t>气胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>海洋廢棄物</t>
+    <t>海洋废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E5%A4%96%E6%B4%A9</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>熱污染</t>
+    <t>热污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%BE%84%E6%B5%81</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%B3%AA</t>
   </si>
   <si>
-    <t>水質</t>
+    <t>水质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B0%B4</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%A1%A8%E9%80%95%E6%B5%81</t>
   </si>
   <si>
-    <t>地表逕流</t>
+    <t>地表迳流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E5%9B%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>懸浮固體</t>
+    <t>悬浮固体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%B1%A1%E6%9F%93</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%AE%E5%BE%A9</t>
   </si>
   <si>
-    <t>生物修復</t>
+    <t>生物修复</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Phytoremediation</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>熱島現象</t>
+    <t>热岛现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AE%B3</t>
@@ -1031,19 +1031,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E6%80%A7%E6%9C%89%E6%A9%9F%E6%B1%A1%E6%9F%93%E7%89%A9</t>
   </si>
   <si>
-    <t>持久性有機污染物</t>
+    <t>持久性有机污染物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%B9%B2%E6%93%BE%E7%B4%A0</t>
   </si>
   <si>
-    <t>內分泌干擾素</t>
+    <t>内分泌干扰素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E9%9B%8C%E6%BF%80%E7%B4%A0</t>
   </si>
   <si>
-    <t>環境雌激素</t>
+    <t>环境雌激素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%9B%91%E6%B5%8B</t>
@@ -1097,19 +1097,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E5%A6%A5%E5%96%84%E8%99%95%E7%90%86%E7%8E%87</t>
   </si>
   <si>
-    <t>污水妥善處理率</t>
+    <t>污水妥善处理率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>旋風分離</t>
+    <t>旋风分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8F%91%E9%85%B5</t>
@@ -1139,13 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%AF%E7%A9%8D</t>
   </si>
   <si>
-    <t>生物累積</t>
+    <t>生物累积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%BF%83%E7%B8%AE%E6%80%A7</t>
   </si>
   <si>
-    <t>生物濃縮性</t>
+    <t>生物浓缩性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%BE%E5%AE%B3</t>
@@ -1163,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A1%91%E4%BB%81%E6%AD%A6%E5%BB%A0%E6%B1%99%E6%9F%93%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>台塑仁武廠汙染事件</t>
+    <t>台塑仁武厂污染事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8D%97%E7%9C%81%E5%85%92%E7%AB%A5%E9%89%9B%E4%B8%AD%E6%AF%92%E6%A1%88</t>
   </si>
   <si>
-    <t>湖南省兒童鉛中毒案</t>
+    <t>湖南省儿童铅中毒案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%9B%E5%A4%A7%E6%B1%A1%E6%9F%93%E7%97%85</t>
@@ -1187,19 +1187,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%AA%E6%96%AF%E8%99%9F%E8%B2%A8%E8%BC%AA%E6%B2%B9%E6%B1%A1%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>阿瑪斯號貨輪油污事件</t>
+    <t>阿玛斯号货轮油污事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%92%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>林園事件</t>
+    <t>林园事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%BC%8F%E6%B2%B9%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>2010年墨西哥灣漏油事故</t>
+    <t>2010年墨西哥湾漏油事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A4%A7%E8%BF%9E%E6%96%B0%E6%B8%AF%E8%BE%93%E6%B2%B9%E7%AE%A1%E9%81%93%E7%88%86%E7%82%B8</t>
@@ -1229,19 +1229,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>斯德哥爾摩公約</t>
+    <t>斯德哥尔摩公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E8%88%B9%E8%88%B6%E6%B1%99%E6%9F%93%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>防止船舶汙染國際公約</t>
+    <t>防止船舶污染国际公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BF%A3%E5%85%AC%E7%BA%A6</t>
@@ -1253,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E8%80%85%E8%87%AA%E4%BB%98%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>污染者自付原則</t>
+    <t>污染者自付原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E6%B1%A1%E6%9F%93%E7%89%A9%E6%8E%92%E6%94%BE%E6%94%BF%E7%AD%96</t>
@@ -1277,13 +1277,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>歐洲環境署</t>
+    <t>欧洲环境署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%9C%81</t>
   </si>
   <si>
-    <t>環境省</t>
+    <t>环境省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E9%83%A8</t>
@@ -1301,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
   </si>
   <si>
-    <t>綠黨</t>
+    <t>绿党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%BD%B1%E5%93%8D%E8%AF%84%E4%BB%B7</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -1367,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -1439,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -1451,13 +1451,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -1469,13 +1469,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -1487,19 +1487,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -1511,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -1529,19 +1529,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>綠色生活</t>
+    <t>绿色生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
   </si>
   <si>
-    <t>環境友善</t>
+    <t>环境友善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -1553,19 +1553,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>里約環境與發展宣言</t>
+    <t>里约环境与发展宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
   </si>
   <si>
-    <t>生態現代化</t>
+    <t>生态现代化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -1577,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -1595,43 +1595,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反消費主義</t>
+    <t>反消费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>生態足跡</t>
+    <t>生态足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>良知消費</t>
+    <t>良知消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
   </si>
   <si>
-    <t>過度消耗</t>
+    <t>过度消耗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>糧食安全</t>
+    <t>粮食安全</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Local_food</t>
@@ -1643,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>永續農業</t>
+    <t>永续农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
@@ -1661,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>水危機</t>
+    <t>水危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
@@ -1673,19 +1673,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>節約用水</t>
+    <t>节约用水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>碳足跡</t>
+    <t>碳足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
@@ -1697,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_descent</t>
@@ -1715,13 +1715,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -1739,9 +1739,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
   </si>
   <si>
@@ -1751,19 +1748,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>全新世滅絕事件</t>
+    <t>全新世灭绝事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>入侵物種</t>
+    <t>入侵物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
@@ -1781,13 +1778,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>永續運輸</t>
+    <t>永续运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
@@ -1811,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
   </si>
   <si>
-    <t>環境史</t>
+    <t>环境史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
@@ -1823,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
@@ -1835,25 +1832,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>布倫特蘭委員會</t>
+    <t>布伦特兰委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>地球高峰會</t>
+    <t>地球高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
   </si>
   <si>
-    <t>21世紀議程</t>
+    <t>21世纪议程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物多樣性公約</t>
+    <t>生物多样性公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
@@ -1865,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>千禧年生態系統評估</t>
+    <t>千禧年生态系统评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
@@ -1913,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>黑色金屬</t>
+    <t>黑色金属</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Glass_recycling</t>
@@ -1997,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%A2%E5%85%89%E7%87%88</t>
   </si>
   <si>
-    <t>螢光燈</t>
+    <t>萤光灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%9D%90</t>
@@ -2009,13 +2006,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>行動電話</t>
+    <t>行动电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%97%E6%96%99</t>
   </si>
   <si>
-    <t>塗料</t>
+    <t>涂料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9</t>
@@ -2027,19 +2024,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94%E5%93%81</t>
   </si>
   <si>
-    <t>紡織品</t>
+    <t>纺织品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%83%8E</t>
   </si>
   <si>
-    <t>輪胎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>載具</t>
+    <t>载具</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Blue_bag</t>
@@ -2237,7 +2231,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9A%AF%E8%9A%93%E7%B3%9E</t>
   </si>
   <si>
-    <t>蚯蚓糞</t>
+    <t>蚯蚓粪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Container_deposit_legislation</t>
@@ -2249,19 +2243,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%90%9C%E5%B0%8B</t>
   </si>
   <si>
-    <t>垃圾搜尋</t>
+    <t>垃圾搜寻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>免費素食主義</t>
+    <t>免费素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>簡單生活</t>
+    <t>简单生活</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Waste-to-energy</t>
@@ -11481,10 +11475,10 @@
         <v>573</v>
       </c>
       <c r="F305" t="s">
-        <v>574</v>
+        <v>212</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11507,10 +11501,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>574</v>
+      </c>
+      <c r="F306" t="s">
         <v>575</v>
-      </c>
-      <c r="F306" t="s">
-        <v>576</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11536,10 +11530,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>576</v>
+      </c>
+      <c r="F307" t="s">
         <v>577</v>
-      </c>
-      <c r="F307" t="s">
-        <v>578</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11565,10 +11559,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>578</v>
+      </c>
+      <c r="F308" t="s">
         <v>579</v>
-      </c>
-      <c r="F308" t="s">
-        <v>580</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11594,10 +11588,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>580</v>
+      </c>
+      <c r="F309" t="s">
         <v>581</v>
-      </c>
-      <c r="F309" t="s">
-        <v>582</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11623,10 +11617,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>582</v>
+      </c>
+      <c r="F310" t="s">
         <v>583</v>
-      </c>
-      <c r="F310" t="s">
-        <v>584</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11652,10 +11646,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>584</v>
+      </c>
+      <c r="F311" t="s">
         <v>585</v>
-      </c>
-      <c r="F311" t="s">
-        <v>586</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11681,10 +11675,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>586</v>
+      </c>
+      <c r="F312" t="s">
         <v>587</v>
-      </c>
-      <c r="F312" t="s">
-        <v>588</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11710,10 +11704,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>588</v>
+      </c>
+      <c r="F313" t="s">
         <v>589</v>
-      </c>
-      <c r="F313" t="s">
-        <v>590</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11739,10 +11733,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>590</v>
+      </c>
+      <c r="F314" t="s">
         <v>591</v>
-      </c>
-      <c r="F314" t="s">
-        <v>592</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11768,10 +11762,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>592</v>
+      </c>
+      <c r="F315" t="s">
         <v>593</v>
-      </c>
-      <c r="F315" t="s">
-        <v>594</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11797,10 +11791,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>594</v>
+      </c>
+      <c r="F316" t="s">
         <v>595</v>
-      </c>
-      <c r="F316" t="s">
-        <v>596</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11826,10 +11820,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>596</v>
+      </c>
+      <c r="F317" t="s">
         <v>597</v>
-      </c>
-      <c r="F317" t="s">
-        <v>598</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11855,10 +11849,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>598</v>
+      </c>
+      <c r="F318" t="s">
         <v>599</v>
-      </c>
-      <c r="F318" t="s">
-        <v>600</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11884,10 +11878,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>600</v>
+      </c>
+      <c r="F319" t="s">
         <v>601</v>
-      </c>
-      <c r="F319" t="s">
-        <v>602</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11913,10 +11907,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>602</v>
+      </c>
+      <c r="F320" t="s">
         <v>603</v>
-      </c>
-      <c r="F320" t="s">
-        <v>604</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11942,10 +11936,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>604</v>
+      </c>
+      <c r="F321" t="s">
         <v>605</v>
-      </c>
-      <c r="F321" t="s">
-        <v>606</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11971,10 +11965,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>606</v>
+      </c>
+      <c r="F322" t="s">
         <v>607</v>
-      </c>
-      <c r="F322" t="s">
-        <v>608</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12000,10 +11994,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>608</v>
+      </c>
+      <c r="F323" t="s">
         <v>609</v>
-      </c>
-      <c r="F323" t="s">
-        <v>610</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12029,10 +12023,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>610</v>
+      </c>
+      <c r="F324" t="s">
         <v>611</v>
-      </c>
-      <c r="F324" t="s">
-        <v>612</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12058,10 +12052,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>612</v>
+      </c>
+      <c r="F325" t="s">
         <v>613</v>
-      </c>
-      <c r="F325" t="s">
-        <v>614</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12087,10 +12081,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>614</v>
+      </c>
+      <c r="F326" t="s">
         <v>615</v>
-      </c>
-      <c r="F326" t="s">
-        <v>616</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12116,10 +12110,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>616</v>
+      </c>
+      <c r="F327" t="s">
         <v>617</v>
-      </c>
-      <c r="F327" t="s">
-        <v>618</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12145,10 +12139,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>618</v>
+      </c>
+      <c r="F328" t="s">
         <v>619</v>
-      </c>
-      <c r="F328" t="s">
-        <v>620</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12174,10 +12168,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>620</v>
+      </c>
+      <c r="F329" t="s">
         <v>621</v>
-      </c>
-      <c r="F329" t="s">
-        <v>622</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12203,10 +12197,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>622</v>
+      </c>
+      <c r="F330" t="s">
         <v>623</v>
-      </c>
-      <c r="F330" t="s">
-        <v>624</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12232,10 +12226,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>624</v>
+      </c>
+      <c r="F331" t="s">
         <v>625</v>
-      </c>
-      <c r="F331" t="s">
-        <v>626</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12261,10 +12255,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>626</v>
+      </c>
+      <c r="F332" t="s">
         <v>627</v>
-      </c>
-      <c r="F332" t="s">
-        <v>628</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12290,10 +12284,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>628</v>
+      </c>
+      <c r="F333" t="s">
         <v>629</v>
-      </c>
-      <c r="F333" t="s">
-        <v>630</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12319,10 +12313,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>630</v>
+      </c>
+      <c r="F334" t="s">
         <v>631</v>
-      </c>
-      <c r="F334" t="s">
-        <v>632</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12348,10 +12342,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>632</v>
+      </c>
+      <c r="F335" t="s">
         <v>633</v>
-      </c>
-      <c r="F335" t="s">
-        <v>634</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12377,10 +12371,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>634</v>
+      </c>
+      <c r="F336" t="s">
         <v>635</v>
-      </c>
-      <c r="F336" t="s">
-        <v>636</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12406,10 +12400,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>636</v>
+      </c>
+      <c r="F337" t="s">
         <v>637</v>
-      </c>
-      <c r="F337" t="s">
-        <v>638</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12435,10 +12429,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>638</v>
+      </c>
+      <c r="F338" t="s">
         <v>639</v>
-      </c>
-      <c r="F338" t="s">
-        <v>640</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12464,10 +12458,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>640</v>
+      </c>
+      <c r="F339" t="s">
         <v>641</v>
-      </c>
-      <c r="F339" t="s">
-        <v>642</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12493,10 +12487,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>642</v>
+      </c>
+      <c r="F340" t="s">
         <v>643</v>
-      </c>
-      <c r="F340" t="s">
-        <v>644</v>
       </c>
       <c r="G340" t="n">
         <v>4</v>
@@ -12522,10 +12516,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>644</v>
+      </c>
+      <c r="F341" t="s">
         <v>645</v>
-      </c>
-      <c r="F341" t="s">
-        <v>646</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12551,10 +12545,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>646</v>
+      </c>
+      <c r="F342" t="s">
         <v>647</v>
-      </c>
-      <c r="F342" t="s">
-        <v>648</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12580,10 +12574,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>648</v>
+      </c>
+      <c r="F343" t="s">
         <v>649</v>
-      </c>
-      <c r="F343" t="s">
-        <v>650</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12609,10 +12603,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>650</v>
+      </c>
+      <c r="F344" t="s">
         <v>651</v>
-      </c>
-      <c r="F344" t="s">
-        <v>652</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12638,10 +12632,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>652</v>
+      </c>
+      <c r="F345" t="s">
         <v>653</v>
-      </c>
-      <c r="F345" t="s">
-        <v>654</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12667,10 +12661,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>654</v>
+      </c>
+      <c r="F346" t="s">
         <v>655</v>
-      </c>
-      <c r="F346" t="s">
-        <v>656</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12696,10 +12690,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>656</v>
+      </c>
+      <c r="F347" t="s">
         <v>657</v>
-      </c>
-      <c r="F347" t="s">
-        <v>658</v>
       </c>
       <c r="G347" t="n">
         <v>16</v>
@@ -12754,10 +12748,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>658</v>
+      </c>
+      <c r="F349" t="s">
         <v>659</v>
-      </c>
-      <c r="F349" t="s">
-        <v>660</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12783,10 +12777,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>660</v>
+      </c>
+      <c r="F350" t="s">
         <v>661</v>
-      </c>
-      <c r="F350" t="s">
-        <v>662</v>
       </c>
       <c r="G350" t="n">
         <v>5</v>
@@ -12812,10 +12806,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>662</v>
+      </c>
+      <c r="F351" t="s">
         <v>663</v>
-      </c>
-      <c r="F351" t="s">
-        <v>664</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12841,10 +12835,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>664</v>
+      </c>
+      <c r="F352" t="s">
         <v>665</v>
-      </c>
-      <c r="F352" t="s">
-        <v>666</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12870,10 +12864,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>666</v>
+      </c>
+      <c r="F353" t="s">
         <v>667</v>
-      </c>
-      <c r="F353" t="s">
-        <v>668</v>
       </c>
       <c r="G353" t="n">
         <v>7</v>
@@ -12899,10 +12893,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>668</v>
+      </c>
+      <c r="F354" t="s">
         <v>669</v>
-      </c>
-      <c r="F354" t="s">
-        <v>670</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12928,10 +12922,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F355" t="s">
-        <v>672</v>
+        <v>24</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12957,10 +12951,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F356" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -12986,10 +12980,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F357" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13015,10 +13009,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F358" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13044,10 +13038,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F359" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13073,10 +13067,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F360" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13102,10 +13096,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F361" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G361" t="n">
         <v>3</v>
@@ -13131,10 +13125,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F362" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13160,10 +13154,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F363" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13189,10 +13183,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F364" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13218,10 +13212,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F365" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13247,10 +13241,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F366" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13276,10 +13270,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F367" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13305,10 +13299,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F368" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13334,10 +13328,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13363,10 +13357,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F370" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13392,10 +13386,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F371" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13421,10 +13415,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F372" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13450,10 +13444,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F373" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13479,10 +13473,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F374" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13508,10 +13502,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F375" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13537,10 +13531,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F376" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -13566,10 +13560,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F377" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13595,10 +13589,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F378" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13624,10 +13618,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -13653,10 +13647,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F380" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13682,10 +13676,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F381" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13711,10 +13705,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F382" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -13740,10 +13734,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F383" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -13798,10 +13792,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13827,10 +13821,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13885,10 +13879,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -13914,10 +13908,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -13943,10 +13937,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13972,10 +13966,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14001,10 +13995,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F392" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14030,10 +14024,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14059,10 +14053,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F394" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14088,10 +14082,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F395" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14117,10 +14111,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F396" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14146,10 +14140,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F397" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14175,10 +14169,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F398" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14204,10 +14198,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F399" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14233,10 +14227,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F400" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G400" t="n">
         <v>8</v>
@@ -14262,10 +14256,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>755</v>
+      </c>
+      <c r="F401" t="s">
         <v>757</v>
-      </c>
-      <c r="F401" t="s">
-        <v>759</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
